--- a/database/industries/folad/hormoz/product/quarterly_seprated.xlsx
+++ b/database/industries/folad/hormoz/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\hormoz\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\hormoz\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E011BD31-A041-4D1A-95B9-1433879F846B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -174,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +383,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -379,7 +395,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -426,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,17 +662,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -631,8 +681,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,8 +698,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -655,8 +715,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -665,8 +730,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -677,8 +747,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -689,8 +764,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -699,8 +779,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -721,8 +806,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -731,10 +831,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -743,152 +848,247 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>215925</v>
+      </c>
+      <c r="F12" s="13">
+        <v>227158</v>
+      </c>
+      <c r="G12" s="13">
+        <v>202039</v>
+      </c>
+      <c r="H12" s="13">
+        <v>218317</v>
+      </c>
+      <c r="I12" s="13">
+        <v>151046</v>
+      </c>
+      <c r="J12" s="13">
         <v>274730</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>141163</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>147609</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>296963</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+      <c r="F13" s="11">
+        <v>0</v>
       </c>
       <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>19312</v>
+      </c>
+      <c r="I13" s="11">
+        <v>30680</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>1387</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>614</v>
       </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>1369</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4353</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5095</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4660</v>
+      </c>
+      <c r="I14" s="13">
+        <v>2210</v>
+      </c>
+      <c r="J14" s="13">
         <v>4405</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>1825</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>3051</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>3024</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>1149</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
       </c>
       <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>26</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>4315</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>2922</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>2062</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15">
+        <v>218443</v>
+      </c>
+      <c r="F16" s="15">
+        <v>231511</v>
+      </c>
+      <c r="G16" s="15">
+        <v>207134</v>
+      </c>
+      <c r="H16" s="15">
+        <v>242289</v>
+      </c>
+      <c r="I16" s="15">
+        <v>183962</v>
+      </c>
+      <c r="J16" s="15">
         <v>279135</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
         <v>148690</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>154196</v>
       </c>
-      <c r="I16" s="15">
+      <c r="N16" s="15">
         <v>302049</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -897,56 +1097,91 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11">
+        <v>135569</v>
+      </c>
+      <c r="F18" s="11">
+        <v>95607</v>
+      </c>
+      <c r="G18" s="11">
+        <v>263198</v>
+      </c>
+      <c r="H18" s="11">
+        <v>145471</v>
+      </c>
+      <c r="I18" s="11">
+        <v>139851</v>
+      </c>
+      <c r="J18" s="11">
         <v>110398</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="K18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11">
         <v>166683</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>118451</v>
       </c>
-      <c r="I18" s="11">
+      <c r="N18" s="11">
         <v>94812</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
+        <v>135569</v>
+      </c>
+      <c r="F19" s="15">
+        <v>95607</v>
+      </c>
+      <c r="G19" s="15">
+        <v>263198</v>
+      </c>
+      <c r="H19" s="15">
+        <v>145471</v>
+      </c>
+      <c r="I19" s="15">
+        <v>139851</v>
+      </c>
+      <c r="J19" s="15">
         <v>110398</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
         <v>166683</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>118451</v>
       </c>
-      <c r="I19" s="15">
+      <c r="N19" s="15">
         <v>94812</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -955,10 +1190,15 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -977,100 +1217,175 @@
       <c r="I21" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>13</v>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>13</v>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
       </c>
       <c r="G24" s="15">
         <v>0</v>
       </c>
-      <c r="H24" s="15">
-        <v>0</v>
+      <c r="H24" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I24" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19">
+        <v>354012</v>
+      </c>
+      <c r="F25" s="19">
+        <v>327118</v>
+      </c>
+      <c r="G25" s="19">
+        <v>470332</v>
+      </c>
+      <c r="H25" s="19">
+        <v>387760</v>
+      </c>
+      <c r="I25" s="19">
+        <v>323813</v>
+      </c>
+      <c r="J25" s="19">
         <v>389533</v>
       </c>
-      <c r="F25" s="19">
-        <v>0</v>
-      </c>
-      <c r="G25" s="19">
+      <c r="K25" s="19">
+        <v>0</v>
+      </c>
+      <c r="L25" s="19">
         <v>315373</v>
       </c>
-      <c r="H25" s="19">
+      <c r="M25" s="19">
         <v>272647</v>
       </c>
-      <c r="I25" s="19">
+      <c r="N25" s="19">
         <v>396861</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1079,8 +1394,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1089,8 +1409,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1099,10 +1424,15 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1121,8 +1451,23 @@
       <c r="I29" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1131,10 +1476,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1143,152 +1493,247 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
+        <v>16242139</v>
+      </c>
+      <c r="F33" s="13">
+        <v>23369270</v>
+      </c>
+      <c r="G33" s="13">
+        <v>25859372</v>
+      </c>
+      <c r="H33" s="13">
+        <v>33482966</v>
+      </c>
+      <c r="I33" s="13">
+        <v>24562361</v>
+      </c>
+      <c r="J33" s="13">
         <v>43132424</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="K33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="13">
         <v>23220424</v>
       </c>
-      <c r="H33" s="13">
+      <c r="M33" s="13">
         <v>22953019</v>
       </c>
-      <c r="I33" s="13">
+      <c r="N33" s="13">
         <v>37693141</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>-1001</v>
+      </c>
+      <c r="H34" s="11">
+        <v>627424</v>
+      </c>
+      <c r="I34" s="11">
+        <v>3361978</v>
+      </c>
+      <c r="J34" s="11">
         <v>131058</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="11">
         <v>138410</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>76339</v>
       </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
+        <v>1130</v>
+      </c>
+      <c r="F35" s="13">
+        <v>4105</v>
+      </c>
+      <c r="G35" s="13">
+        <v>4804</v>
+      </c>
+      <c r="H35" s="13">
+        <v>5532</v>
+      </c>
+      <c r="I35" s="13">
+        <v>3371</v>
+      </c>
+      <c r="J35" s="13">
         <v>6606</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="K35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="13">
         <v>5328</v>
       </c>
-      <c r="H35" s="13">
+      <c r="M35" s="13">
         <v>8909</v>
       </c>
-      <c r="I35" s="13">
+      <c r="N35" s="13">
         <v>8830</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
+        <v>8273</v>
+      </c>
+      <c r="F36" s="11">
+        <v>-1</v>
       </c>
       <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1862</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11">
         <v>207552</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>163262</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>69296</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>16251542</v>
+      </c>
+      <c r="F37" s="15">
+        <v>23373374</v>
+      </c>
+      <c r="G37" s="15">
+        <v>25863175</v>
+      </c>
+      <c r="H37" s="15">
+        <v>34115922</v>
+      </c>
+      <c r="I37" s="15">
+        <v>27929572</v>
+      </c>
+      <c r="J37" s="15">
         <v>43270088</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
         <v>23571714</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>23201529</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>37771267</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1297,56 +1742,91 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>9886994</v>
+      </c>
+      <c r="F39" s="11">
+        <v>10521328</v>
+      </c>
+      <c r="G39" s="11">
+        <v>31913320</v>
+      </c>
+      <c r="H39" s="11">
+        <v>18347883</v>
+      </c>
+      <c r="I39" s="11">
+        <v>22204887</v>
+      </c>
+      <c r="J39" s="11">
         <v>17997442</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="11">
+      <c r="K39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="11">
         <v>25225766</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>17965569</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>13783786</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
+        <v>9886994</v>
+      </c>
+      <c r="F40" s="15">
+        <v>10521328</v>
+      </c>
+      <c r="G40" s="15">
+        <v>31913320</v>
+      </c>
+      <c r="H40" s="15">
+        <v>18347883</v>
+      </c>
+      <c r="I40" s="15">
+        <v>22204887</v>
+      </c>
+      <c r="J40" s="15">
         <v>17997442</v>
       </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
         <v>25225766</v>
       </c>
-      <c r="H40" s="15">
+      <c r="M40" s="15">
         <v>17965569</v>
       </c>
-      <c r="I40" s="15">
+      <c r="N40" s="15">
         <v>13783786</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -1355,10 +1835,15 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -1377,102 +1862,177 @@
       <c r="I42" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="19">
+        <v>0</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0</v>
+      </c>
+      <c r="N42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D44" s="19"/>
-      <c r="E44" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>13</v>
+      <c r="E44" s="19">
+        <v>0</v>
+      </c>
+      <c r="F44" s="19">
+        <v>0</v>
+      </c>
+      <c r="G44" s="19">
+        <v>0</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D45" s="15"/>
-      <c r="E45" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>13</v>
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
       </c>
       <c r="G45" s="15">
         <v>0</v>
       </c>
-      <c r="H45" s="15">
-        <v>0</v>
+      <c r="H45" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
+        <v>26138536</v>
+      </c>
+      <c r="F46" s="19">
+        <v>33894702</v>
+      </c>
+      <c r="G46" s="19">
+        <v>57776495</v>
+      </c>
+      <c r="H46" s="19">
+        <v>52463805</v>
+      </c>
+      <c r="I46" s="19">
+        <v>50134459</v>
+      </c>
+      <c r="J46" s="19">
         <v>61267530</v>
       </c>
-      <c r="F46" s="19">
-        <v>0</v>
-      </c>
-      <c r="G46" s="19">
+      <c r="K46" s="19">
+        <v>0</v>
+      </c>
+      <c r="L46" s="19">
         <v>48797480</v>
       </c>
-      <c r="H46" s="19">
+      <c r="M46" s="19">
         <v>41167098</v>
       </c>
-      <c r="I46" s="19">
+      <c r="N46" s="19">
         <v>51555053</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1481,8 +2041,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1491,8 +2056,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1501,10 +2071,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1523,8 +2098,23 @@
       <c r="I50" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1533,10 +2123,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1545,130 +2140,210 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
+        <v>75221206</v>
+      </c>
+      <c r="F54" s="13">
+        <v>102876720</v>
+      </c>
+      <c r="G54" s="13">
+        <v>127991977</v>
+      </c>
+      <c r="H54" s="13">
+        <v>153368570</v>
+      </c>
+      <c r="I54" s="13">
+        <v>162615104</v>
+      </c>
+      <c r="J54" s="13">
         <v>156999323</v>
       </c>
-      <c r="F54" s="13">
+      <c r="K54" s="13">
         <v>154865298</v>
       </c>
-      <c r="G54" s="13">
+      <c r="L54" s="13">
         <v>164493699</v>
       </c>
-      <c r="H54" s="13">
+      <c r="M54" s="13">
         <v>155498777</v>
       </c>
-      <c r="I54" s="13">
+      <c r="N54" s="13">
         <v>126928745</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="11">
+        <v>18</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="11">
+        <v>32488815</v>
+      </c>
+      <c r="I55" s="11">
+        <v>109582073</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="11">
         <v>99790916</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>124330619</v>
       </c>
-      <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>825420</v>
+      </c>
+      <c r="F56" s="13">
+        <v>943028</v>
+      </c>
+      <c r="G56" s="13">
+        <v>942885</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1187124</v>
+      </c>
+      <c r="I56" s="13">
+        <v>1525339</v>
+      </c>
+      <c r="J56" s="13">
         <v>1499659</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>1500598</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>2919452</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>2920026</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>2919974</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="E57" s="11">
+        <v>7200174</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="11">
+        <v>71615385</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11">
         <v>81199556</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>48100116</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>55873374</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>33606208</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1677,32 +2352,52 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>72929608</v>
+      </c>
+      <c r="F59" s="11">
+        <v>110047674</v>
+      </c>
+      <c r="G59" s="11">
+        <v>121252137</v>
+      </c>
+      <c r="H59" s="11">
+        <v>126127427</v>
+      </c>
+      <c r="I59" s="11">
+        <v>158775318</v>
+      </c>
+      <c r="J59" s="11">
         <v>163023261</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>141830014</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>151339765</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>151670893</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>145380184</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1711,8 +2406,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1721,8 +2421,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1731,10 +2436,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1753,8 +2463,23 @@
       <c r="I63" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1763,10 +2488,15 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -1775,152 +2505,247 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="11">
-        <v>0</v>
-      </c>
-      <c r="G66" s="11">
-        <v>0</v>
-      </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
+        <v>0</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>-8521017</v>
+      </c>
+      <c r="F67" s="13">
+        <v>-12705173</v>
+      </c>
+      <c r="G67" s="13">
+        <v>-16426814</v>
+      </c>
+      <c r="H67" s="13">
+        <v>-18726010</v>
+      </c>
+      <c r="I67" s="13">
+        <v>-7544307</v>
+      </c>
+      <c r="J67" s="13">
         <v>-26564763</v>
       </c>
-      <c r="F67" s="13">
+      <c r="K67" s="13">
         <v>-18737209</v>
       </c>
-      <c r="G67" s="13">
+      <c r="L67" s="13">
         <v>-14688024</v>
       </c>
-      <c r="H67" s="13">
+      <c r="M67" s="13">
         <v>-16367513</v>
       </c>
-      <c r="I67" s="13">
+      <c r="N67" s="13">
         <v>-33628286</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>-25309</v>
+      </c>
+      <c r="F68" s="11">
+        <v>-58601</v>
+      </c>
+      <c r="G68" s="11">
+        <v>-76566</v>
+      </c>
+      <c r="H68" s="11">
+        <v>-831384</v>
+      </c>
+      <c r="I68" s="11">
+        <v>-4442345</v>
+      </c>
+      <c r="J68" s="11">
         <v>2629687</v>
       </c>
-      <c r="F68" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="11">
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11">
         <v>-92609</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>-43703</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>734</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
+        <v>-2991</v>
+      </c>
+      <c r="F69" s="13">
+        <v>-9569</v>
+      </c>
+      <c r="G69" s="13">
+        <v>-14243</v>
+      </c>
+      <c r="H69" s="13">
+        <v>-12729</v>
+      </c>
+      <c r="I69" s="13">
+        <v>-8062</v>
+      </c>
+      <c r="J69" s="13">
         <v>-18256</v>
       </c>
-      <c r="F69" s="13">
+      <c r="K69" s="13">
         <v>-19355</v>
       </c>
-      <c r="G69" s="13">
+      <c r="L69" s="13">
         <v>-8205</v>
       </c>
-      <c r="H69" s="13">
+      <c r="M69" s="13">
         <v>-16267</v>
       </c>
-      <c r="I69" s="13">
+      <c r="N69" s="13">
         <v>-20137</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>-22873</v>
+      </c>
+      <c r="F70" s="11">
+        <v>-6509</v>
+      </c>
+      <c r="G70" s="11">
+        <v>-7346</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>-1122</v>
+      </c>
+      <c r="J70" s="11">
         <v>-189</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>-3323275</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>-316036</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>-221508</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>-156200</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>-8572190</v>
+      </c>
+      <c r="F71" s="15">
+        <v>-12779852</v>
+      </c>
+      <c r="G71" s="15">
+        <v>-16524969</v>
+      </c>
+      <c r="H71" s="15">
+        <v>-19570123</v>
+      </c>
+      <c r="I71" s="15">
+        <v>-11995836</v>
+      </c>
+      <c r="J71" s="15">
         <v>-23953521</v>
       </c>
-      <c r="F71" s="15">
+      <c r="K71" s="15">
         <v>-22079839</v>
       </c>
-      <c r="G71" s="15">
+      <c r="L71" s="15">
         <v>-15104874</v>
       </c>
-      <c r="H71" s="15">
+      <c r="M71" s="15">
         <v>-16648991</v>
       </c>
-      <c r="I71" s="15">
+      <c r="N71" s="15">
         <v>-33803889</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -1929,56 +2754,91 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>-5302143</v>
+      </c>
+      <c r="F73" s="11">
+        <v>-5827585</v>
+      </c>
+      <c r="G73" s="11">
+        <v>-16888869</v>
+      </c>
+      <c r="H73" s="11">
+        <v>-12477712</v>
+      </c>
+      <c r="I73" s="11">
+        <v>-7815332</v>
+      </c>
+      <c r="J73" s="11">
         <v>-12167948</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>-19849005</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>-17343383</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>-13320909</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>-11293939</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
+        <v>-5302143</v>
+      </c>
+      <c r="F74" s="15">
+        <v>-5827585</v>
+      </c>
+      <c r="G74" s="15">
+        <v>-16888869</v>
+      </c>
+      <c r="H74" s="15">
+        <v>-12477712</v>
+      </c>
+      <c r="I74" s="15">
+        <v>-7815332</v>
+      </c>
+      <c r="J74" s="15">
         <v>-12167948</v>
       </c>
-      <c r="F74" s="15">
+      <c r="K74" s="15">
         <v>-19849005</v>
       </c>
-      <c r="G74" s="15">
+      <c r="L74" s="15">
         <v>-17343383</v>
       </c>
-      <c r="H74" s="15">
+      <c r="M74" s="15">
         <v>-13320909</v>
       </c>
-      <c r="I74" s="15">
+      <c r="N74" s="15">
         <v>-11293939</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -1987,10 +2847,15 @@
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
@@ -2009,102 +2874,177 @@
       <c r="I76" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="19">
+        <v>0</v>
+      </c>
+      <c r="K76" s="19">
+        <v>0</v>
+      </c>
+      <c r="L76" s="19">
+        <v>0</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0</v>
+      </c>
+      <c r="N76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="15">
+        <v>0</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D78" s="19"/>
-      <c r="E78" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>13</v>
+      <c r="E78" s="19">
+        <v>0</v>
+      </c>
+      <c r="F78" s="19">
+        <v>0</v>
+      </c>
+      <c r="G78" s="19">
+        <v>0</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>13</v>
+      <c r="E79" s="15">
+        <v>0</v>
+      </c>
+      <c r="F79" s="15">
+        <v>0</v>
       </c>
       <c r="G79" s="15">
         <v>0</v>
       </c>
-      <c r="H79" s="15">
-        <v>0</v>
+      <c r="H79" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I79" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19">
+        <v>-13874333</v>
+      </c>
+      <c r="F80" s="19">
+        <v>-18607437</v>
+      </c>
+      <c r="G80" s="19">
+        <v>-33413838</v>
+      </c>
+      <c r="H80" s="19">
+        <v>-32047835</v>
+      </c>
+      <c r="I80" s="19">
+        <v>-19811168</v>
+      </c>
+      <c r="J80" s="19">
         <v>-36121469</v>
       </c>
-      <c r="F80" s="19">
+      <c r="K80" s="19">
         <v>-41928844</v>
       </c>
-      <c r="G80" s="19">
+      <c r="L80" s="19">
         <v>-32448257</v>
       </c>
-      <c r="H80" s="19">
+      <c r="M80" s="19">
         <v>-29969900</v>
       </c>
-      <c r="I80" s="19">
+      <c r="N80" s="19">
         <v>-45097828</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2113,8 +3053,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2123,8 +3068,13 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2133,10 +3083,15 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2155,8 +3110,23 @@
       <c r="I84" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2165,10 +3135,15 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2177,152 +3152,247 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="11">
-        <v>0</v>
-      </c>
-      <c r="G87" s="11">
-        <v>0</v>
-      </c>
-      <c r="H87" s="11">
-        <v>0</v>
-      </c>
-      <c r="I87" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="11">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11">
+        <v>0</v>
+      </c>
+      <c r="M87" s="11">
+        <v>0</v>
+      </c>
+      <c r="N87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>7721122</v>
+      </c>
+      <c r="F88" s="13">
+        <v>10664097</v>
+      </c>
+      <c r="G88" s="13">
+        <v>9432557</v>
+      </c>
+      <c r="H88" s="13">
+        <v>14756956</v>
+      </c>
+      <c r="I88" s="13">
+        <v>17018054</v>
+      </c>
+      <c r="J88" s="13">
         <v>16567661</v>
       </c>
-      <c r="F88" s="13">
+      <c r="K88" s="13">
         <v>8842597</v>
       </c>
-      <c r="G88" s="13">
+      <c r="L88" s="13">
         <v>8532400</v>
       </c>
-      <c r="H88" s="13">
+      <c r="M88" s="13">
         <v>6585506</v>
       </c>
-      <c r="I88" s="13">
+      <c r="N88" s="13">
         <v>4064855</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
+        <v>-25309</v>
+      </c>
+      <c r="F89" s="11">
+        <v>-58601</v>
+      </c>
+      <c r="G89" s="11">
+        <v>-77567</v>
+      </c>
+      <c r="H89" s="11">
+        <v>-203960</v>
+      </c>
+      <c r="I89" s="11">
+        <v>-1080367</v>
+      </c>
+      <c r="J89" s="11">
         <v>2760745</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="11">
+      <c r="K89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="11">
         <v>45801</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>32636</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>734</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
+        <v>-1861</v>
+      </c>
+      <c r="F90" s="13">
+        <v>-5464</v>
+      </c>
+      <c r="G90" s="13">
+        <v>-9439</v>
+      </c>
+      <c r="H90" s="13">
+        <v>-7197</v>
+      </c>
+      <c r="I90" s="13">
+        <v>-4691</v>
+      </c>
+      <c r="J90" s="13">
         <v>-11650</v>
       </c>
-      <c r="F90" s="13">
+      <c r="K90" s="13">
         <v>-14334</v>
       </c>
-      <c r="G90" s="13">
+      <c r="L90" s="13">
         <v>-2877</v>
       </c>
-      <c r="H90" s="13">
+      <c r="M90" s="13">
         <v>-7358</v>
       </c>
-      <c r="I90" s="13">
+      <c r="N90" s="13">
         <v>-11307</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
+        <v>-14600</v>
+      </c>
+      <c r="F91" s="11">
+        <v>-6510</v>
+      </c>
+      <c r="G91" s="11">
+        <v>-7345</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>740</v>
+      </c>
+      <c r="J91" s="11">
         <v>-189</v>
       </c>
-      <c r="F91" s="11">
+      <c r="K91" s="11">
         <v>1649467</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>-108484</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>-58246</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>-86904</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
+        <v>7679352</v>
+      </c>
+      <c r="F92" s="15">
+        <v>10593522</v>
+      </c>
+      <c r="G92" s="15">
+        <v>9338206</v>
+      </c>
+      <c r="H92" s="15">
+        <v>14545799</v>
+      </c>
+      <c r="I92" s="15">
+        <v>15933736</v>
+      </c>
+      <c r="J92" s="15">
         <v>19316567</v>
       </c>
-      <c r="F92" s="15">
+      <c r="K92" s="15">
         <v>10477730</v>
       </c>
-      <c r="G92" s="15">
+      <c r="L92" s="15">
         <v>8466840</v>
       </c>
-      <c r="H92" s="15">
+      <c r="M92" s="15">
         <v>6552538</v>
       </c>
-      <c r="I92" s="15">
+      <c r="N92" s="15">
         <v>3967378</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2331,56 +3401,91 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>4584851</v>
+      </c>
+      <c r="F94" s="11">
+        <v>4693743</v>
+      </c>
+      <c r="G94" s="11">
+        <v>15024451</v>
+      </c>
+      <c r="H94" s="11">
+        <v>5870171</v>
+      </c>
+      <c r="I94" s="11">
+        <v>14389555</v>
+      </c>
+      <c r="J94" s="11">
         <v>5829494</v>
       </c>
-      <c r="F94" s="11">
+      <c r="K94" s="11">
         <v>9252812</v>
       </c>
-      <c r="G94" s="11">
+      <c r="L94" s="11">
         <v>7882383</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>4644660</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>2489847</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>4584851</v>
+      </c>
+      <c r="F95" s="15">
+        <v>4693743</v>
+      </c>
+      <c r="G95" s="15">
+        <v>15024451</v>
+      </c>
+      <c r="H95" s="15">
+        <v>5870171</v>
+      </c>
+      <c r="I95" s="15">
+        <v>14389555</v>
+      </c>
+      <c r="J95" s="15">
         <v>5829494</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>9252812</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>7882383</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>4644660</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>2489847</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -2389,10 +3494,15 @@
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
@@ -2411,26 +3521,56 @@
       <c r="I97" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="19">
+        <v>0</v>
+      </c>
+      <c r="K97" s="19">
+        <v>0</v>
+      </c>
+      <c r="L97" s="19">
+        <v>0</v>
+      </c>
+      <c r="M97" s="19">
+        <v>0</v>
+      </c>
+      <c r="N97" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
+        <v>12264203</v>
+      </c>
+      <c r="F98" s="15">
+        <v>15287265</v>
+      </c>
+      <c r="G98" s="15">
+        <v>24362657</v>
+      </c>
+      <c r="H98" s="15">
+        <v>20415970</v>
+      </c>
+      <c r="I98" s="15">
+        <v>30323291</v>
+      </c>
+      <c r="J98" s="15">
         <v>25146061</v>
       </c>
-      <c r="F98" s="15">
+      <c r="K98" s="15">
         <v>19730542</v>
       </c>
-      <c r="G98" s="15">
+      <c r="L98" s="15">
         <v>16349223</v>
       </c>
-      <c r="H98" s="15">
+      <c r="M98" s="15">
         <v>11197198</v>
       </c>
-      <c r="I98" s="15">
+      <c r="N98" s="15">
         <v>6457225</v>
       </c>
     </row>
